--- a/dataanalysis/data/predictions/1400/09181412_1414.xlsx
+++ b/dataanalysis/data/predictions/1400/09181412_1414.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-18</t>
   </si>
   <si>
@@ -497,12 +500,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -860,13 +857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,19 +966,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-6.13</v>
@@ -999,7 +999,7 @@
         <v>90822.94</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1041,10 +1041,25 @@
         <v>-0.82</v>
       </c>
       <c r="X2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y2">
+        <v>-3.33</v>
+      </c>
+      <c r="Z2">
+        <v>14.68</v>
+      </c>
+      <c r="AA2">
+        <v>4.19</v>
       </c>
       <c r="AC2" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1052,22 +1067,25 @@
       <c r="AG2">
         <v>0.6048685312271118</v>
       </c>
-      <c r="AH2" t="s">
-        <v>161</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.97</v>
@@ -1085,7 +1103,7 @@
         <v>472811.93</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1127,10 +1145,25 @@
         <v>-0.13</v>
       </c>
       <c r="X3" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y3">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>68.14</v>
+      </c>
+      <c r="AA3">
+        <v>0.09</v>
       </c>
       <c r="AC3" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1138,22 +1171,25 @@
       <c r="AG3">
         <v>-0.168103814125061</v>
       </c>
-      <c r="AH3" t="s">
-        <v>161</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-7.27</v>
@@ -1171,7 +1207,7 @@
         <v>127282.09</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1213,10 +1249,25 @@
         <v>-1.73</v>
       </c>
       <c r="X4" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y4">
+        <v>-2.51</v>
+      </c>
+      <c r="Z4">
+        <v>7.31</v>
+      </c>
+      <c r="AA4">
+        <v>2.38</v>
       </c>
       <c r="AC4" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1224,22 +1275,25 @@
       <c r="AG4">
         <v>3.536505222320557</v>
       </c>
-      <c r="AH4" t="s">
-        <v>161</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.26</v>
@@ -1257,7 +1311,7 @@
         <v>121343.77</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -1299,10 +1353,25 @@
         <v>-0.2</v>
       </c>
       <c r="X5" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y5">
+        <v>-5.94</v>
+      </c>
+      <c r="Z5">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>2.05</v>
       </c>
       <c r="AC5" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1310,22 +1379,25 @@
       <c r="AG5">
         <v>5.847998142242432</v>
       </c>
-      <c r="AH5" t="s">
-        <v>161</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300115</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.98</v>
@@ -1343,7 +1415,7 @@
         <v>873461.5600000001</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1385,10 +1457,25 @@
         <v>0.54</v>
       </c>
       <c r="X6" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y6">
+        <v>-8.9</v>
+      </c>
+      <c r="Z6">
+        <v>33.77</v>
+      </c>
+      <c r="AA6">
+        <v>-0.24</v>
       </c>
       <c r="AC6" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1396,22 +1483,25 @@
       <c r="AG6">
         <v>-12.14819717407227</v>
       </c>
-      <c r="AH6" t="s">
-        <v>161</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300209</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.52</v>
@@ -1429,7 +1519,7 @@
         <v>30830.26</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1471,10 +1561,25 @@
         <v>-1.15</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y7">
+        <v>4.75</v>
+      </c>
+      <c r="Z7">
+        <v>6.84</v>
+      </c>
+      <c r="AA7">
+        <v>11.58</v>
       </c>
       <c r="AC7" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1482,22 +1587,25 @@
       <c r="AG7">
         <v>10.84210777282715</v>
       </c>
-      <c r="AH7" t="s">
-        <v>161</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300252</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.95</v>
@@ -1515,7 +1623,7 @@
         <v>134297.38</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1557,10 +1665,25 @@
         <v>-1.27</v>
       </c>
       <c r="X8" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y8">
+        <v>-0.19</v>
+      </c>
+      <c r="Z8">
+        <v>16.98</v>
+      </c>
+      <c r="AA8">
+        <v>9.9</v>
       </c>
       <c r="AC8" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1568,22 +1691,25 @@
       <c r="AG8">
         <v>3.582567453384399</v>
       </c>
-      <c r="AH8" t="s">
-        <v>161</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.61</v>
@@ -1601,7 +1727,7 @@
         <v>1663241.83</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1643,10 +1769,25 @@
         <v>-0.11</v>
       </c>
       <c r="X9" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y9">
+        <v>-3.75</v>
+      </c>
+      <c r="Z9">
+        <v>142.3</v>
+      </c>
+      <c r="AA9">
+        <v>0.32</v>
       </c>
       <c r="AC9" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1654,22 +1795,25 @@
       <c r="AG9">
         <v>5.387650012969971</v>
       </c>
-      <c r="AH9" t="s">
-        <v>161</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300277</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>4.5</v>
@@ -1687,7 +1831,7 @@
         <v>61709.43</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1729,10 +1873,25 @@
         <v>0.2</v>
       </c>
       <c r="X10" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y10">
+        <v>-3.99</v>
+      </c>
+      <c r="Z10">
+        <v>16.9</v>
+      </c>
+      <c r="AA10">
+        <v>2.42</v>
       </c>
       <c r="AC10" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1740,22 +1899,25 @@
       <c r="AG10">
         <v>1.1459721326828</v>
       </c>
-      <c r="AH10" t="s">
-        <v>161</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300331</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.27</v>
@@ -1773,7 +1935,7 @@
         <v>253396.56</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1815,10 +1977,25 @@
         <v>-1.72</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y11">
+        <v>4.34</v>
+      </c>
+      <c r="Z11">
+        <v>42</v>
+      </c>
+      <c r="AA11">
+        <v>10.58</v>
       </c>
       <c r="AC11" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1826,22 +2003,25 @@
       <c r="AG11">
         <v>-0.3839313685894012</v>
       </c>
-      <c r="AH11" t="s">
-        <v>161</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>4.74</v>
@@ -1859,7 +2039,7 @@
         <v>1104791.55</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1901,10 +2081,25 @@
         <v>0.31</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y12">
+        <v>-1.99</v>
+      </c>
+      <c r="Z12">
+        <v>59.88</v>
+      </c>
+      <c r="AA12">
+        <v>6.72</v>
       </c>
       <c r="AC12" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1912,22 +2107,25 @@
       <c r="AG12">
         <v>4.22275972366333</v>
       </c>
-      <c r="AH12" t="s">
-        <v>161</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.77</v>
@@ -1945,7 +2143,7 @@
         <v>205611.48</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -1987,10 +2185,25 @@
         <v>-0.19</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y13">
+        <v>-5.15</v>
+      </c>
+      <c r="Z13">
+        <v>34.88</v>
+      </c>
+      <c r="AA13">
+        <v>1.54</v>
       </c>
       <c r="AC13" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1998,22 +2211,25 @@
       <c r="AG13">
         <v>1.609997153282166</v>
       </c>
-      <c r="AH13" t="s">
-        <v>161</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300469</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.07</v>
@@ -2031,7 +2247,7 @@
         <v>133307.93</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>21</v>
@@ -2073,10 +2289,25 @@
         <v>-0.39</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y14">
+        <v>-2.47</v>
+      </c>
+      <c r="Z14">
+        <v>90.8</v>
+      </c>
+      <c r="AA14">
+        <v>3.36</v>
       </c>
       <c r="AC14" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2084,22 +2315,25 @@
       <c r="AG14">
         <v>9.14060115814209</v>
       </c>
-      <c r="AH14" t="s">
-        <v>161</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.84</v>
@@ -2117,7 +2351,7 @@
         <v>310048.87</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -2159,10 +2393,25 @@
         <v>-0.71</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y15">
+        <v>2.68</v>
+      </c>
+      <c r="Z15">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>7.31</v>
       </c>
       <c r="AC15" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2170,22 +2419,25 @@
       <c r="AG15">
         <v>1.90272331237793</v>
       </c>
-      <c r="AH15" t="s">
-        <v>161</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300499</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.62</v>
@@ -2203,7 +2455,7 @@
         <v>264374.27</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2245,10 +2497,25 @@
         <v>1.49</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y16">
+        <v>-7.33</v>
+      </c>
+      <c r="Z16">
+        <v>34.49</v>
+      </c>
+      <c r="AA16">
+        <v>2.19</v>
       </c>
       <c r="AC16" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2256,22 +2523,25 @@
       <c r="AG16">
         <v>13.60131072998047</v>
       </c>
-      <c r="AH16" t="s">
-        <v>161</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300539</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.74</v>
@@ -2289,7 +2559,7 @@
         <v>128447.31</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2331,10 +2601,25 @@
         <v>0.75</v>
       </c>
       <c r="X17" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y17">
+        <v>-5.56</v>
+      </c>
+      <c r="Z17">
+        <v>42.83</v>
+      </c>
+      <c r="AA17">
+        <v>-1.04</v>
       </c>
       <c r="AC17" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2342,22 +2627,25 @@
       <c r="AG17">
         <v>1.027065515518188</v>
       </c>
-      <c r="AH17" t="s">
-        <v>161</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300602</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>10.71</v>
@@ -2375,7 +2663,7 @@
         <v>280097</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2417,10 +2705,25 @@
         <v>0.75</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y18">
+        <v>-4.88</v>
+      </c>
+      <c r="Z18">
+        <v>35.79</v>
+      </c>
+      <c r="AA18">
+        <v>-0.2</v>
       </c>
       <c r="AC18" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2428,22 +2731,25 @@
       <c r="AG18">
         <v>3.91124439239502</v>
       </c>
-      <c r="AH18" t="s">
-        <v>161</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300604</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.12</v>
@@ -2461,7 +2767,7 @@
         <v>312953.16</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -2503,10 +2809,25 @@
         <v>-0.18</v>
       </c>
       <c r="X19" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y19">
+        <v>-1.39</v>
+      </c>
+      <c r="Z19">
+        <v>67.13</v>
+      </c>
+      <c r="AA19">
+        <v>3.8</v>
       </c>
       <c r="AC19" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2514,22 +2835,25 @@
       <c r="AG19">
         <v>0.6361527442932129</v>
       </c>
-      <c r="AH19" t="s">
-        <v>161</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300620</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>14.8</v>
@@ -2547,7 +2871,7 @@
         <v>457254.2</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2589,10 +2913,25 @@
         <v>1.08</v>
       </c>
       <c r="X20" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y20">
+        <v>1.77</v>
+      </c>
+      <c r="Z20">
+        <v>131.1</v>
+      </c>
+      <c r="AA20">
+        <v>6.63</v>
       </c>
       <c r="AC20" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2600,22 +2939,25 @@
       <c r="AG20">
         <v>0.5637102723121643</v>
       </c>
-      <c r="AH20" t="s">
-        <v>161</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300660</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.32</v>
@@ -2633,7 +2975,7 @@
         <v>226665.4</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2675,10 +3017,25 @@
         <v>-0.03</v>
       </c>
       <c r="X21" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y21">
+        <v>-8</v>
+      </c>
+      <c r="Z21">
+        <v>62.33</v>
+      </c>
+      <c r="AA21">
+        <v>1.91</v>
       </c>
       <c r="AC21" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2686,22 +3043,25 @@
       <c r="AG21">
         <v>1.567532539367676</v>
       </c>
-      <c r="AH21" t="s">
-        <v>161</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-7.95</v>
@@ -2719,7 +3079,7 @@
         <v>163518.6</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2761,10 +3121,25 @@
         <v>-0.66</v>
       </c>
       <c r="X22" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y22">
+        <v>-4.61</v>
+      </c>
+      <c r="Z22">
+        <v>61.5</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2772,22 +3147,25 @@
       <c r="AG22">
         <v>-4.984976291656494</v>
       </c>
-      <c r="AH22" t="s">
-        <v>161</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.02</v>
@@ -2805,7 +3183,7 @@
         <v>238463.64</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2847,10 +3225,25 @@
         <v>0.35</v>
       </c>
       <c r="X23" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y23">
+        <v>-3.44</v>
+      </c>
+      <c r="Z23">
+        <v>45.5</v>
+      </c>
+      <c r="AA23">
+        <v>2.02</v>
       </c>
       <c r="AC23" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2858,22 +3251,25 @@
       <c r="AG23">
         <v>5.033993244171143</v>
       </c>
-      <c r="AH23" t="s">
-        <v>161</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300701</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.69</v>
@@ -2891,7 +3287,7 @@
         <v>51983</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2932,8 +3328,23 @@
       <c r="W24">
         <v>-0.13</v>
       </c>
+      <c r="Y24">
+        <v>-7.95</v>
+      </c>
+      <c r="Z24">
+        <v>14.63</v>
+      </c>
+      <c r="AA24">
+        <v>-1.88</v>
+      </c>
       <c r="AC24" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2941,22 +3352,25 @@
       <c r="AG24">
         <v>2.72590970993042</v>
       </c>
-      <c r="AH24" t="s">
-        <v>161</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300803</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-7.17</v>
@@ -2974,7 +3388,7 @@
         <v>906702.95</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -3016,10 +3430,25 @@
         <v>-1.36</v>
       </c>
       <c r="X25" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y25">
+        <v>-3.51</v>
+      </c>
+      <c r="Z25">
+        <v>161.32</v>
+      </c>
+      <c r="AA25">
+        <v>0.52</v>
       </c>
       <c r="AC25" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3027,22 +3456,25 @@
       <c r="AG25">
         <v>2.211095333099365</v>
       </c>
-      <c r="AH25" t="s">
-        <v>161</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300814</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.6</v>
@@ -3060,7 +3492,7 @@
         <v>54208.56</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3102,10 +3534,25 @@
         <v>-0.15</v>
       </c>
       <c r="X26" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y26">
+        <v>5.33</v>
+      </c>
+      <c r="Z26">
+        <v>54.36</v>
+      </c>
+      <c r="AA26">
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3113,22 +3560,25 @@
       <c r="AG26">
         <v>-2.646023511886597</v>
       </c>
-      <c r="AH26" t="s">
-        <v>161</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300843</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.48</v>
@@ -3146,7 +3596,7 @@
         <v>115333.39</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3188,10 +3638,25 @@
         <v>-0.48</v>
       </c>
       <c r="X27" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y27">
+        <v>-3.21</v>
+      </c>
+      <c r="Z27">
+        <v>60.3</v>
+      </c>
+      <c r="AA27">
+        <v>1.7</v>
       </c>
       <c r="AC27" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3199,22 +3664,25 @@
       <c r="AG27">
         <v>2.34190821647644</v>
       </c>
-      <c r="AH27" t="s">
-        <v>161</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300852</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-5.33</v>
@@ -3232,7 +3700,7 @@
         <v>61461.22</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3274,10 +3742,25 @@
         <v>0.17</v>
       </c>
       <c r="X28" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y28">
+        <v>-3.84</v>
+      </c>
+      <c r="Z28">
+        <v>45.73</v>
+      </c>
+      <c r="AA28">
+        <v>-0.17</v>
       </c>
       <c r="AC28" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3285,22 +3768,25 @@
       <c r="AG28">
         <v>7.960282802581787</v>
       </c>
-      <c r="AH28" t="s">
-        <v>161</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300857</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-3.22</v>
@@ -3318,7 +3804,7 @@
         <v>319309.85</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -3360,10 +3846,25 @@
         <v>-0.23</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y29">
+        <v>0.26</v>
+      </c>
+      <c r="Z29">
+        <v>169</v>
+      </c>
+      <c r="AA29">
+        <v>4.19</v>
       </c>
       <c r="AC29" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3371,22 +3872,25 @@
       <c r="AG29">
         <v>2.506187677383423</v>
       </c>
-      <c r="AH29" t="s">
-        <v>161</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300953</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.5</v>
@@ -3404,7 +3908,7 @@
         <v>210506.09</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>17</v>
@@ -3446,10 +3950,25 @@
         <v>-0.02</v>
       </c>
       <c r="X30" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y30">
+        <v>-5.04</v>
+      </c>
+      <c r="Z30">
+        <v>166.91</v>
+      </c>
+      <c r="AA30">
+        <v>-1.45</v>
       </c>
       <c r="AC30" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3457,22 +3976,25 @@
       <c r="AG30">
         <v>4.576705932617188</v>
       </c>
-      <c r="AH30" t="s">
-        <v>161</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300959</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-9.98</v>
@@ -3490,7 +4012,7 @@
         <v>112046.03</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3532,10 +4054,25 @@
         <v>-0.2</v>
       </c>
       <c r="X31" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y31">
+        <v>-1.95</v>
+      </c>
+      <c r="Z31">
+        <v>79.94</v>
+      </c>
+      <c r="AA31">
+        <v>8.289999999999999</v>
       </c>
       <c r="AC31" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3543,22 +4080,25 @@
       <c r="AG31">
         <v>4.702208995819092</v>
       </c>
-      <c r="AH31" t="s">
-        <v>161</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300969</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>7.03</v>
@@ -3576,7 +4116,7 @@
         <v>76334.97</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3618,10 +4158,25 @@
         <v>1.12</v>
       </c>
       <c r="X32" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y32">
+        <v>-2.95</v>
+      </c>
+      <c r="Z32">
+        <v>116.36</v>
+      </c>
+      <c r="AA32">
+        <v>-1.41</v>
       </c>
       <c r="AC32" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3629,22 +4184,25 @@
       <c r="AG32">
         <v>2.882660865783691</v>
       </c>
-      <c r="AH32" t="s">
-        <v>161</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300984</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.92</v>
@@ -3662,7 +4220,7 @@
         <v>82638.73</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3704,10 +4262,25 @@
         <v>-1.01</v>
       </c>
       <c r="X33" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="AA33">
+        <v>2.61</v>
       </c>
       <c r="AC33" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3715,22 +4288,25 @@
       <c r="AG33">
         <v>10.18507194519043</v>
       </c>
-      <c r="AH33" t="s">
-        <v>161</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300990</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-2.49</v>
@@ -3748,7 +4324,7 @@
         <v>46842.35</v>
       </c>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3790,10 +4366,25 @@
         <v>-0.33</v>
       </c>
       <c r="X34" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y34">
+        <v>-2.4</v>
+      </c>
+      <c r="Z34">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC34" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3801,22 +4392,25 @@
       <c r="AG34">
         <v>-0.02469292469322681</v>
       </c>
-      <c r="AH34" t="s">
-        <v>161</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301002</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-4.96</v>
@@ -3834,7 +4428,7 @@
         <v>61795.67</v>
       </c>
       <c r="J35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K35">
         <v>13</v>
@@ -3875,8 +4469,23 @@
       <c r="W35">
         <v>-1.2</v>
       </c>
+      <c r="Y35">
+        <v>-5.68</v>
+      </c>
+      <c r="Z35">
+        <v>43.66</v>
+      </c>
+      <c r="AA35">
+        <v>2.66</v>
+      </c>
       <c r="AC35" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3884,22 +4493,25 @@
       <c r="AG35">
         <v>2.481102705001831</v>
       </c>
-      <c r="AH35" t="s">
-        <v>161</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301008</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.91</v>
@@ -3917,7 +4529,7 @@
         <v>100328.17</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3959,10 +4571,25 @@
         <v>-0.23</v>
       </c>
       <c r="X36" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y36">
+        <v>-2.03</v>
+      </c>
+      <c r="Z36">
+        <v>43.64</v>
+      </c>
+      <c r="AA36">
+        <v>1.09</v>
       </c>
       <c r="AC36" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3970,22 +4597,25 @@
       <c r="AG36">
         <v>14.81284809112549</v>
       </c>
-      <c r="AH36" t="s">
-        <v>161</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301012</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.79</v>
@@ -4003,7 +4633,7 @@
         <v>116158.66</v>
       </c>
       <c r="J37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4045,10 +4675,25 @@
         <v>1.75</v>
       </c>
       <c r="X37" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y37">
+        <v>-2.65</v>
+      </c>
+      <c r="Z37">
+        <v>27.62</v>
+      </c>
+      <c r="AA37">
+        <v>1.43</v>
       </c>
       <c r="AC37" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4056,22 +4701,25 @@
       <c r="AG37">
         <v>4.698102474212646</v>
       </c>
-      <c r="AH37" t="s">
-        <v>161</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301013</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>19.99</v>
@@ -4089,7 +4737,7 @@
         <v>242705.2</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4131,10 +4779,25 @@
         <v>-0.84</v>
       </c>
       <c r="X38" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y38">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="Z38">
+        <v>29.79</v>
+      </c>
+      <c r="AA38">
+        <v>1.92</v>
       </c>
       <c r="AC38" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4142,22 +4805,25 @@
       <c r="AG38">
         <v>10.13261795043945</v>
       </c>
-      <c r="AH38" t="s">
-        <v>161</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301018</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>8.380000000000001</v>
@@ -4175,7 +4841,7 @@
         <v>163703.46</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4217,10 +4883,25 @@
         <v>1.05</v>
       </c>
       <c r="X39" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y39">
+        <v>-4.27</v>
+      </c>
+      <c r="Z39">
+        <v>80.12</v>
+      </c>
+      <c r="AA39">
+        <v>1.03</v>
       </c>
       <c r="AC39" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4228,22 +4909,25 @@
       <c r="AG39">
         <v>9.563504219055176</v>
       </c>
-      <c r="AH39" t="s">
-        <v>161</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301123</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-3.43</v>
@@ -4261,7 +4945,7 @@
         <v>68493.11</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4303,10 +4987,25 @@
         <v>-0.08</v>
       </c>
       <c r="X40" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y40">
+        <v>2.85</v>
+      </c>
+      <c r="Z40">
+        <v>52.55</v>
+      </c>
+      <c r="AA40">
+        <v>5.61</v>
       </c>
       <c r="AC40" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4314,22 +5013,25 @@
       <c r="AG40">
         <v>2.179548978805542</v>
       </c>
-      <c r="AH40" t="s">
-        <v>161</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301307</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.88</v>
@@ -4347,7 +5049,7 @@
         <v>112878.26</v>
       </c>
       <c r="J41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4389,10 +5091,25 @@
         <v>0.45</v>
       </c>
       <c r="X41" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y41">
+        <v>-2.34</v>
+      </c>
+      <c r="Z41">
+        <v>42.08</v>
+      </c>
+      <c r="AA41">
+        <v>2.61</v>
       </c>
       <c r="AC41" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4400,22 +5117,25 @@
       <c r="AG41">
         <v>1.2109295129776</v>
       </c>
-      <c r="AH41" t="s">
-        <v>161</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301389</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>8.789999999999999</v>
@@ -4433,7 +5153,7 @@
         <v>168800.74</v>
       </c>
       <c r="J42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4475,10 +5195,25 @@
         <v>0.4</v>
       </c>
       <c r="X42" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y42">
+        <v>2.26</v>
+      </c>
+      <c r="Z42">
+        <v>79.88</v>
+      </c>
+      <c r="AA42">
+        <v>11.13</v>
       </c>
       <c r="AC42" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4486,22 +5221,25 @@
       <c r="AG42">
         <v>5.822217464447021</v>
       </c>
-      <c r="AH42" t="s">
-        <v>162</v>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301413</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-9.1</v>
@@ -4519,7 +5257,7 @@
         <v>162111.07</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K43">
         <v>20</v>
@@ -4561,10 +5299,25 @@
         <v>-0.96</v>
       </c>
       <c r="X43" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y43">
+        <v>-9.050000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>178.1</v>
+      </c>
+      <c r="AA43">
+        <v>0.23</v>
       </c>
       <c r="AC43" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4572,22 +5325,25 @@
       <c r="AG43">
         <v>4.443142414093018</v>
       </c>
-      <c r="AH43" t="s">
-        <v>161</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301488</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-8.220000000000001</v>
@@ -4605,7 +5361,7 @@
         <v>187625.14</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K44">
         <v>17</v>
@@ -4647,10 +5403,25 @@
         <v>-1.53</v>
       </c>
       <c r="X44" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y44">
+        <v>-11.92</v>
+      </c>
+      <c r="Z44">
+        <v>198.4</v>
+      </c>
+      <c r="AA44">
+        <v>-0.85</v>
       </c>
       <c r="AC44" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4658,22 +5429,25 @@
       <c r="AG44">
         <v>-3.403321027755737</v>
       </c>
-      <c r="AH44" t="s">
-        <v>161</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301489</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.98</v>
@@ -4691,7 +5465,7 @@
         <v>79483.33</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4733,10 +5507,25 @@
         <v>0.14</v>
       </c>
       <c r="X45" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y45">
+        <v>3.77</v>
+      </c>
+      <c r="Z45">
+        <v>241.5</v>
+      </c>
+      <c r="AA45">
+        <v>6.3</v>
       </c>
       <c r="AC45" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4744,22 +5533,25 @@
       <c r="AG45">
         <v>4.648447513580322</v>
       </c>
-      <c r="AH45" t="s">
-        <v>161</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301550</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -4777,7 +5569,7 @@
         <v>142618.33</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4819,10 +5611,25 @@
         <v>-0.45</v>
       </c>
       <c r="X46" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y46">
+        <v>-7</v>
+      </c>
+      <c r="Z46">
+        <v>127.89</v>
+      </c>
+      <c r="AA46">
+        <v>-0.32</v>
       </c>
       <c r="AC46" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4830,22 +5637,25 @@
       <c r="AG46">
         <v>4.229392051696777</v>
       </c>
-      <c r="AH46" t="s">
-        <v>161</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301600</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.19</v>
@@ -4863,7 +5673,7 @@
         <v>76001.94</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4905,10 +5715,25 @@
         <v>-0.21</v>
       </c>
       <c r="X47" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y47">
+        <v>-3.35</v>
+      </c>
+      <c r="Z47">
+        <v>150.55</v>
+      </c>
+      <c r="AA47">
+        <v>3.47</v>
       </c>
       <c r="AC47" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4916,22 +5741,25 @@
       <c r="AG47">
         <v>3.560775995254517</v>
       </c>
-      <c r="AH47" t="s">
-        <v>161</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688017</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.72</v>
@@ -4949,7 +5777,7 @@
         <v>269005.21</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4991,10 +5819,25 @@
         <v>-0.23</v>
       </c>
       <c r="X48" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y48">
+        <v>-6.73</v>
+      </c>
+      <c r="Z48">
+        <v>178</v>
+      </c>
+      <c r="AA48">
+        <v>-0.04</v>
       </c>
       <c r="AC48" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5002,22 +5845,25 @@
       <c r="AG48">
         <v>-6.776656627655029</v>
       </c>
-      <c r="AH48" t="s">
-        <v>161</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688028</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>12.36</v>
@@ -5035,7 +5881,7 @@
         <v>77728.67</v>
       </c>
       <c r="J49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -5077,10 +5923,25 @@
         <v>0.61</v>
       </c>
       <c r="X49" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y49">
+        <v>-5.88</v>
+      </c>
+      <c r="Z49">
+        <v>48.29</v>
+      </c>
+      <c r="AA49">
+        <v>2.74</v>
       </c>
       <c r="AC49" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5088,22 +5949,25 @@
       <c r="AG49">
         <v>1.58198344707489</v>
       </c>
-      <c r="AH49" t="s">
-        <v>161</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688041</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.4</v>
@@ -5121,7 +5985,7 @@
         <v>1596027.49</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5163,10 +6027,25 @@
         <v>-0.11</v>
       </c>
       <c r="X50" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y50">
+        <v>-3.22</v>
+      </c>
+      <c r="Z50">
+        <v>249.99</v>
+      </c>
+      <c r="AA50">
+        <v>3.43</v>
       </c>
       <c r="AC50" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5174,22 +6053,25 @@
       <c r="AG50">
         <v>20.09228515625</v>
       </c>
-      <c r="AH50" t="s">
-        <v>161</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688110</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-8.91</v>
@@ -5207,7 +6089,7 @@
         <v>436408.47</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -5249,10 +6131,25 @@
         <v>-1.22</v>
       </c>
       <c r="X51" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y51">
+        <v>-4.38</v>
+      </c>
+      <c r="Z51">
+        <v>121.32</v>
+      </c>
+      <c r="AA51">
+        <v>5.5</v>
       </c>
       <c r="AC51" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5260,22 +6157,25 @@
       <c r="AG51">
         <v>14.18582725524902</v>
       </c>
-      <c r="AH51" t="s">
-        <v>161</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688135</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>4.99</v>
@@ -5293,7 +6193,7 @@
         <v>169572.7</v>
       </c>
       <c r="J52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K52">
         <v>13</v>
@@ -5335,10 +6235,25 @@
         <v>-0.25</v>
       </c>
       <c r="X52" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y52">
+        <v>-5.5</v>
+      </c>
+      <c r="Z52">
+        <v>35.85</v>
+      </c>
+      <c r="AA52">
+        <v>1.5</v>
       </c>
       <c r="AC52" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5346,22 +6261,25 @@
       <c r="AG52">
         <v>-16.12995338439941</v>
       </c>
-      <c r="AH52" t="s">
-        <v>161</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688141</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.1</v>
@@ -5379,7 +6297,7 @@
         <v>103805.45</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5421,10 +6339,25 @@
         <v>1.06</v>
       </c>
       <c r="X53" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y53">
+        <v>-2.9</v>
+      </c>
+      <c r="Z53">
+        <v>52.8</v>
+      </c>
+      <c r="AA53">
+        <v>2.27</v>
       </c>
       <c r="AC53" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5432,22 +6365,25 @@
       <c r="AG53">
         <v>8.330052375793457</v>
       </c>
-      <c r="AH53" t="s">
-        <v>161</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688167</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-3.11</v>
@@ -5465,7 +6401,7 @@
         <v>177320.37</v>
       </c>
       <c r="J54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K54">
         <v>10</v>
@@ -5507,10 +6443,25 @@
         <v>-0.3</v>
       </c>
       <c r="X54" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y54">
+        <v>-1.09</v>
+      </c>
+      <c r="Z54">
+        <v>186</v>
+      </c>
+      <c r="AA54">
+        <v>9.09</v>
       </c>
       <c r="AC54" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5518,22 +6469,25 @@
       <c r="AG54">
         <v>5.378089427947998</v>
       </c>
-      <c r="AH54" t="s">
-        <v>161</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688195</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>5.28</v>
@@ -5551,7 +6505,7 @@
         <v>142648.08</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K55">
         <v>24</v>
@@ -5593,10 +6547,25 @@
         <v>0.18</v>
       </c>
       <c r="X55" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y55">
+        <v>14.94</v>
+      </c>
+      <c r="Z55">
+        <v>137.79</v>
+      </c>
+      <c r="AA55">
+        <v>18.98</v>
       </c>
       <c r="AC55" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5604,22 +6573,25 @@
       <c r="AG55">
         <v>2.64586877822876</v>
       </c>
-      <c r="AH55" t="s">
-        <v>161</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688205</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>19.91</v>
@@ -5637,7 +6609,7 @@
         <v>269165.41</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5679,10 +6651,25 @@
         <v>0.48</v>
       </c>
       <c r="X56" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y56">
+        <v>9.69</v>
+      </c>
+      <c r="Z56">
+        <v>161.7</v>
+      </c>
+      <c r="AA56">
+        <v>15.25</v>
       </c>
       <c r="AC56" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5690,22 +6677,25 @@
       <c r="AG56">
         <v>-4.893268585205078</v>
       </c>
-      <c r="AH56" t="s">
-        <v>162</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688228</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-3.77</v>
@@ -5723,7 +6713,7 @@
         <v>73344.36</v>
       </c>
       <c r="J57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5765,10 +6755,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X57" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y57">
+        <v>7.32</v>
+      </c>
+      <c r="Z57">
+        <v>195.78</v>
+      </c>
+      <c r="AA57">
+        <v>13.43</v>
       </c>
       <c r="AC57" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5776,22 +6781,25 @@
       <c r="AG57">
         <v>1.583482265472412</v>
       </c>
-      <c r="AH57" t="s">
-        <v>161</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688347</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.5</v>
@@ -5809,7 +6817,7 @@
         <v>249887.64</v>
       </c>
       <c r="J58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5851,10 +6859,25 @@
         <v>-0.09</v>
       </c>
       <c r="X58" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y58">
+        <v>0.62</v>
+      </c>
+      <c r="Z58">
+        <v>86.8</v>
+      </c>
+      <c r="AA58">
+        <v>5.98</v>
       </c>
       <c r="AC58" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5862,22 +6885,25 @@
       <c r="AG58">
         <v>7.410396575927734</v>
       </c>
-      <c r="AH58" t="s">
-        <v>161</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688411</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-3.68</v>
@@ -5895,7 +6921,7 @@
         <v>62122.59</v>
       </c>
       <c r="J59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K59">
         <v>13</v>
@@ -5937,10 +6963,25 @@
         <v>0.23</v>
       </c>
       <c r="X59" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y59">
+        <v>1.71</v>
+      </c>
+      <c r="Z59">
+        <v>203.3</v>
+      </c>
+      <c r="AA59">
+        <v>0.5</v>
       </c>
       <c r="AC59" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5948,22 +6989,25 @@
       <c r="AG59">
         <v>1.759573817253113</v>
       </c>
-      <c r="AH59" t="s">
-        <v>161</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688498</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>2.74</v>
@@ -5981,7 +7025,7 @@
         <v>148983.6</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -6023,10 +7067,25 @@
         <v>0.1</v>
       </c>
       <c r="X60" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y60">
+        <v>2.1</v>
+      </c>
+      <c r="Z60">
+        <v>422</v>
+      </c>
+      <c r="AA60">
+        <v>8.630000000000001</v>
       </c>
       <c r="AC60" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -6034,22 +7093,25 @@
       <c r="AG60">
         <v>4.826385498046875</v>
       </c>
-      <c r="AH60" t="s">
-        <v>162</v>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688521</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.63</v>
@@ -6067,7 +7129,7 @@
         <v>461271.86</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K61">
         <v>12</v>
@@ -6109,10 +7171,25 @@
         <v>-0.1</v>
       </c>
       <c r="X61" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y61">
+        <v>-1.14</v>
+      </c>
+      <c r="Z61">
+        <v>176.88</v>
+      </c>
+      <c r="AA61">
+        <v>4.06</v>
       </c>
       <c r="AC61" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6120,22 +7197,25 @@
       <c r="AG61">
         <v>0.6515753269195557</v>
       </c>
-      <c r="AH61" t="s">
-        <v>161</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688593</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>6.45</v>
@@ -6153,7 +7233,7 @@
         <v>78176.73</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6195,10 +7275,25 @@
         <v>0.24</v>
       </c>
       <c r="X62" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y62">
+        <v>0.59</v>
+      </c>
+      <c r="Z62">
+        <v>26.8</v>
+      </c>
+      <c r="AA62">
+        <v>5.47</v>
       </c>
       <c r="AC62" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6206,22 +7301,25 @@
       <c r="AG62">
         <v>2.910402297973633</v>
       </c>
-      <c r="AH62" t="s">
-        <v>161</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688627</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.33</v>
@@ -6239,7 +7337,7 @@
         <v>88490.83</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6280,8 +7378,23 @@
       <c r="W63">
         <v>-0.26</v>
       </c>
+      <c r="Y63">
+        <v>1.81</v>
+      </c>
+      <c r="Z63">
+        <v>156.8</v>
+      </c>
+      <c r="AA63">
+        <v>9.44</v>
+      </c>
       <c r="AC63" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6289,22 +7402,25 @@
       <c r="AG63">
         <v>2.654320240020752</v>
       </c>
-      <c r="AH63" t="s">
-        <v>161</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688629</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>19.76</v>
@@ -6322,7 +7438,7 @@
         <v>381809.38</v>
       </c>
       <c r="J64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6364,10 +7480,25 @@
         <v>1.87</v>
       </c>
       <c r="X64" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y64">
+        <v>-1.19</v>
+      </c>
+      <c r="Z64">
+        <v>113</v>
+      </c>
+      <c r="AA64">
+        <v>6.6</v>
       </c>
       <c r="AC64" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6375,22 +7506,25 @@
       <c r="AG64">
         <v>3.134183406829834</v>
       </c>
-      <c r="AH64" t="s">
-        <v>162</v>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688630</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>6.77</v>
@@ -6408,7 +7542,7 @@
         <v>171964.61</v>
       </c>
       <c r="J65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6449,8 +7583,23 @@
       <c r="W65">
         <v>0.53</v>
       </c>
+      <c r="Y65">
+        <v>-3.54</v>
+      </c>
+      <c r="Z65">
+        <v>159.94</v>
+      </c>
+      <c r="AA65">
+        <v>3.31</v>
+      </c>
       <c r="AC65" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6458,22 +7607,25 @@
       <c r="AG65">
         <v>0.3217198550701141</v>
       </c>
-      <c r="AH65" t="s">
-        <v>162</v>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688678</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>0.66</v>
@@ -6491,7 +7643,7 @@
         <v>61846.79</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6532,8 +7684,23 @@
       <c r="W66">
         <v>-0.13</v>
       </c>
+      <c r="Y66">
+        <v>1.5</v>
+      </c>
+      <c r="Z66">
+        <v>33.4</v>
+      </c>
+      <c r="AA66">
+        <v>4.93</v>
+      </c>
       <c r="AC66" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6541,22 +7708,25 @@
       <c r="AG66">
         <v>1.485835313796997</v>
       </c>
-      <c r="AH66" t="s">
-        <v>161</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688766</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-5.38</v>
@@ -6574,7 +7744,7 @@
         <v>188566.07</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6616,10 +7786,25 @@
         <v>-1.39</v>
       </c>
       <c r="X67" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y67">
+        <v>3.12</v>
+      </c>
+      <c r="Z67">
+        <v>112.88</v>
+      </c>
+      <c r="AA67">
+        <v>13.49</v>
       </c>
       <c r="AC67" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6627,22 +7812,25 @@
       <c r="AG67">
         <v>5.052302360534668</v>
       </c>
-      <c r="AH67" t="s">
-        <v>161</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688981</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0.78</v>
@@ -6660,7 +7848,7 @@
         <v>1903211.32</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6701,8 +7889,23 @@
       <c r="W68">
         <v>-0.2</v>
       </c>
+      <c r="Y68">
+        <v>-0.66</v>
+      </c>
+      <c r="Z68">
+        <v>127.4</v>
+      </c>
+      <c r="AA68">
+        <v>7.68</v>
+      </c>
       <c r="AC68" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6710,8 +7913,11 @@
       <c r="AG68">
         <v>-0.4937065243721008</v>
       </c>
-      <c r="AH68" t="s">
-        <v>161</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
